--- a/Fase 2/Documentacion Fase 2/MATRIZ CONTROL DE CAMBIO.xlsx
+++ b/Fase 2/Documentacion Fase 2/MATRIZ CONTROL DE CAMBIO.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
-  <si>
-    <t>Matriz Control de Cambio</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+  <si>
+    <t xml:space="preserve"> Matriz Control de Cambio</t>
   </si>
   <si>
     <t>ID</t>
@@ -79,16 +79,25 @@
     <t>Medio</t>
   </si>
   <si>
-    <t>se necesita mandar un correo al alumno
+    <t>Se necesita mandar un correo al alumno
 de que le ha llegado un anuncio</t>
   </si>
   <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>CU-14</t>
+  </si>
+  <si>
     <t>Fase 2</t>
   </si>
   <si>
     <t>Alto</t>
   </si>
   <si>
+    <t>Aceptado</t>
+  </si>
+  <si>
     <t>SC-02</t>
   </si>
   <si>
@@ -96,121 +105,88 @@
   </si>
   <si>
     <t>Opcion de poder vizualizar el material 
-que el profesor sube</t>
+que el profesor sube al portal</t>
+  </si>
+  <si>
+    <t>RF-06</t>
+  </si>
+  <si>
+    <t>CU-06</t>
   </si>
   <si>
     <t>SC-03</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>Se actualizo la página por una mejor interfaz</t>
+  </si>
+  <si>
+    <t>RF-35</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>SC-04</t>
   </si>
   <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementar un sistema de pago para apoderados </t>
+  </si>
+  <si>
     <t>SC-05</t>
   </si>
   <si>
+    <t>Cambio en los permisos de los usuarios</t>
+  </si>
+  <si>
+    <t>RF-19</t>
+  </si>
+  <si>
     <t>SC-06</t>
   </si>
   <si>
+    <t>Cambio en la base de datos</t>
+  </si>
+  <si>
     <t>SC-07</t>
   </si>
   <si>
+    <t>Cambio en el registro de notas</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
     <t>SC-08</t>
   </si>
   <si>
+    <t>Cambio de inicio en la paina</t>
+  </si>
+  <si>
     <t>SC-09</t>
   </si>
   <si>
+    <t>Integración de API para carrucel de imagenes</t>
+  </si>
+  <si>
     <t>SC-10</t>
   </si>
   <si>
+    <t>Uso de URL (API - CARRUSEL)</t>
+  </si>
+  <si>
     <t>SC-11</t>
   </si>
   <si>
-    <t>SC-12</t>
-  </si>
-  <si>
-    <t>SC-13</t>
-  </si>
-  <si>
-    <t>SC-14</t>
-  </si>
-  <si>
-    <t>SC-15</t>
-  </si>
-  <si>
-    <t>SC-16</t>
-  </si>
-  <si>
-    <t>SC-17</t>
-  </si>
-  <si>
-    <t>SC-18</t>
-  </si>
-  <si>
-    <t>SC-19</t>
-  </si>
-  <si>
-    <t>SC-20</t>
-  </si>
-  <si>
-    <t>SC-21</t>
-  </si>
-  <si>
-    <t>SC-22</t>
-  </si>
-  <si>
-    <t>SC-23</t>
-  </si>
-  <si>
-    <t>SC-24</t>
-  </si>
-  <si>
-    <t>SC-25</t>
-  </si>
-  <si>
-    <t>SC-26</t>
-  </si>
-  <si>
-    <t>SC-27</t>
-  </si>
-  <si>
-    <t>SC-28</t>
-  </si>
-  <si>
-    <t>SC-29</t>
-  </si>
-  <si>
-    <t>SC-30</t>
-  </si>
-  <si>
-    <t>SC-31</t>
-  </si>
-  <si>
-    <t>SC-32</t>
-  </si>
-  <si>
-    <t>SC-33</t>
-  </si>
-  <si>
-    <t>SC-34</t>
-  </si>
-  <si>
-    <t>SC-35</t>
-  </si>
-  <si>
-    <t>SC-36</t>
-  </si>
-  <si>
-    <t>SC-37</t>
-  </si>
-  <si>
-    <t>SC-38</t>
-  </si>
-  <si>
-    <t>SC-39</t>
-  </si>
-  <si>
-    <t>SC-40</t>
+    <t>Cambio calculo promedio notas por BD</t>
   </si>
 </sst>
 </file>
@@ -270,26 +246,59 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
       </left>
-      <top/>
-      <bottom style="thin">
+      <right style="thin">
         <color rgb="FFD0CECE"/>
-      </bottom>
-    </border>
-    <border>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFD0CECE"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top/>
+      </right>
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
@@ -312,12 +321,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -331,6 +340,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -342,7 +354,7 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -351,24 +363,44 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -595,9 +627,9 @@
     <col customWidth="1" min="4" max="4" width="22.43"/>
     <col customWidth="1" min="5" max="5" width="25.0"/>
     <col customWidth="1" min="6" max="6" width="21.71"/>
-    <col customWidth="1" min="7" max="7" width="36.57"/>
+    <col customWidth="1" min="7" max="7" width="78.14"/>
     <col customWidth="1" min="8" max="8" width="41.0"/>
-    <col customWidth="1" min="9" max="9" width="22.57"/>
+    <col customWidth="1" min="9" max="9" width="28.86"/>
     <col customWidth="1" min="10" max="10" width="29.86"/>
     <col customWidth="1" min="11" max="11" width="14.29"/>
     <col customWidth="1" min="12" max="12" width="18.29"/>
@@ -639,402 +671,632 @@
       <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>45569.0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="J3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="K4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C5" s="13">
+        <v>45600.0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="13">
         <v>45590.0</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="A8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="A9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="J10" s="17"/>
+      <c r="A10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="J11" s="17"/>
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="J12" s="17"/>
+      <c r="A12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="J13" s="17"/>
+      <c r="A13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="13">
+        <v>45590.0</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="J16" s="17"/>
+      <c r="A16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="J17" s="17"/>
+      <c r="A17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="29"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="J18" s="17"/>
+      <c r="A18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="29"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="J19" s="17"/>
+      <c r="A19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="29"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="J21" s="17"/>
+      <c r="A21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="J22" s="17"/>
+      <c r="A22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="30"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="J23" s="17"/>
+      <c r="A23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="30"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="J24" s="17"/>
+      <c r="A24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="30"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="J25" s="17"/>
+      <c r="A25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="J26" s="17"/>
+      <c r="A26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="20"/>
-      <c r="J27" s="17"/>
+      <c r="A27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="J28" s="17"/>
+      <c r="A28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="J29" s="17"/>
+      <c r="A29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="J29" s="28"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="J30" s="17"/>
+      <c r="A30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="J31" s="28"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="J33" s="17"/>
+      <c r="A33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="J34" s="17"/>
+      <c r="A34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="J35" s="17"/>
+      <c r="A35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="J36" s="17"/>
+      <c r="A36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="21"/>
+      <c r="A37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="21"/>
+      <c r="A38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="19"/>
+      <c r="A42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" ht="14.25" customHeight="1"/>
     <row r="44" ht="14.25" customHeight="1"/>
